--- a/@Functions/obdateexport.xlsx
+++ b/@Functions/obdateexport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Document Code</t>
   </si>
@@ -72,7 +72,7 @@
     <t>CURRENT PERIOD:</t>
   </si>
   <si>
-    <t>January 1970</t>
+    <t>January 2020</t>
   </si>
   <si>
     <t>Date</t>
@@ -196,6 +196,51 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>January 06, 2020</t>
+  </si>
+  <si>
+    <t>100 %</t>
+  </si>
+  <si>
+    <t>January 07, 2020</t>
+  </si>
+  <si>
+    <t>January 10, 2020</t>
+  </si>
+  <si>
+    <t>January 14, 2020</t>
+  </si>
+  <si>
+    <t>January 15, 2020</t>
+  </si>
+  <si>
+    <t>January 20, 2020</t>
+  </si>
+  <si>
+    <t>January 22, 2020</t>
+  </si>
+  <si>
+    <t>January 24, 2020</t>
+  </si>
+  <si>
+    <t>January 27, 2020</t>
+  </si>
+  <si>
+    <t>January 28, 2020</t>
+  </si>
+  <si>
+    <t>January 29, 2020</t>
+  </si>
+  <si>
+    <t>January 30, 2020</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>FM-QP-R4A-FAD-AS-15-02</t>
@@ -710,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="214">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -753,12 +798,6 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -929,6 +968,435 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,6 +1456,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8324850" cy="1243013"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1368,7 +1866,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1391,18 +1889,18 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="13.15">
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:11" customHeight="1" ht="11.45">
@@ -1417,7 +1915,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -1428,116 +1926,116 @@
       </c>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="48">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="20.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="45" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="70.5">
-      <c r="A15" s="45"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1559,313 +2057,495 @@
       <c r="H15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="25.5">
-      <c r="A16" s="45"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:11" customHeight="1" ht="18">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="A17" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="72">
+        <v>16</v>
+      </c>
+      <c r="C17" s="73">
+        <v>0</v>
+      </c>
+      <c r="D17" s="74">
+        <v>0</v>
+      </c>
+      <c r="E17" s="75">
+        <v>16</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="77">
+        <v>1</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="A18" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="83">
+        <v>6</v>
+      </c>
+      <c r="C18" s="84">
+        <v>0</v>
+      </c>
+      <c r="D18" s="85">
+        <v>0</v>
+      </c>
+      <c r="E18" s="86">
+        <v>6</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="88">
+        <v>1</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="A19" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="94">
+        <v>2</v>
+      </c>
+      <c r="C19" s="95">
+        <v>0</v>
+      </c>
+      <c r="D19" s="96">
+        <v>0</v>
+      </c>
+      <c r="E19" s="97">
+        <v>2</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="99">
+        <v>1</v>
+      </c>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="A20" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="105">
+        <v>2</v>
+      </c>
+      <c r="C20" s="106">
+        <v>0</v>
+      </c>
+      <c r="D20" s="107">
+        <v>0</v>
+      </c>
+      <c r="E20" s="108">
+        <v>2</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="110">
+        <v>1</v>
+      </c>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
+      <c r="A21" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="116">
+        <v>12</v>
+      </c>
+      <c r="C21" s="117">
+        <v>0</v>
+      </c>
+      <c r="D21" s="118">
+        <v>0</v>
+      </c>
+      <c r="E21" s="119">
+        <v>12</v>
+      </c>
+      <c r="F21" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="121">
+        <v>1</v>
+      </c>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
+      <c r="A22" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="127">
+        <v>1</v>
+      </c>
+      <c r="C22" s="128">
+        <v>0</v>
+      </c>
+      <c r="D22" s="129">
+        <v>0</v>
+      </c>
+      <c r="E22" s="130">
+        <v>1</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="132">
+        <v>1</v>
+      </c>
+      <c r="H22" s="133"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
+      <c r="A23" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="138">
+        <v>2</v>
+      </c>
+      <c r="C23" s="139">
+        <v>0</v>
+      </c>
+      <c r="D23" s="140">
+        <v>0</v>
+      </c>
+      <c r="E23" s="141">
+        <v>2</v>
+      </c>
+      <c r="F23" s="142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="143">
+        <v>1</v>
+      </c>
+      <c r="H23" s="144"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="147"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
+      <c r="A24" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="149">
+        <v>1</v>
+      </c>
+      <c r="C24" s="150">
+        <v>0</v>
+      </c>
+      <c r="D24" s="151">
+        <v>0</v>
+      </c>
+      <c r="E24" s="152">
+        <v>1</v>
+      </c>
+      <c r="F24" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="154">
+        <v>1</v>
+      </c>
+      <c r="H24" s="155"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
+      <c r="A25" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="160">
+        <v>11</v>
+      </c>
+      <c r="C25" s="161">
+        <v>0</v>
+      </c>
+      <c r="D25" s="162">
+        <v>0</v>
+      </c>
+      <c r="E25" s="163">
+        <v>11</v>
+      </c>
+      <c r="F25" s="164" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="165">
+        <v>1</v>
+      </c>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="A26" s="170" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="171">
+        <v>6</v>
+      </c>
+      <c r="C26" s="172">
+        <v>0</v>
+      </c>
+      <c r="D26" s="173">
+        <v>0</v>
+      </c>
+      <c r="E26" s="174">
+        <v>6</v>
+      </c>
+      <c r="F26" s="175" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="176">
+        <v>1</v>
+      </c>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="180"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="A27" s="181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="182">
+        <v>4</v>
+      </c>
+      <c r="C27" s="183">
+        <v>0</v>
+      </c>
+      <c r="D27" s="184">
+        <v>0</v>
+      </c>
+      <c r="E27" s="185">
+        <v>4</v>
+      </c>
+      <c r="F27" s="186" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="187">
+        <v>1</v>
+      </c>
+      <c r="H27" s="188"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="A28" s="192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="193">
+        <v>10</v>
+      </c>
+      <c r="C28" s="194">
+        <v>0</v>
+      </c>
+      <c r="D28" s="195">
+        <v>0</v>
+      </c>
+      <c r="E28" s="196">
+        <v>10</v>
+      </c>
+      <c r="F28" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="198">
+        <v>1</v>
+      </c>
+      <c r="H28" s="199"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="202"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="A29" s="203" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="204">
+        <v>73</v>
+      </c>
+      <c r="C29" s="205">
+        <v>0</v>
+      </c>
+      <c r="D29" s="206">
+        <v>0</v>
+      </c>
+      <c r="E29" s="207">
+        <v>73</v>
+      </c>
+      <c r="F29" s="208" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="209">
+        <v>1</v>
+      </c>
+      <c r="H29" s="210"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="213"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1888,6 +2568,19 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,18 +2626,18 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="13.15">
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="J3" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
+      <c r="J3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:12" customHeight="1" ht="11.45">
@@ -1970,108 +2663,108 @@
       </c>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="15.75">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="36">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2301,18 +2994,18 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="13.15">
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="I3" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:11" customHeight="1" ht="11.45">
@@ -2338,320 +3031,320 @@
       </c>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="14.45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="23" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="1:11" customHeight="1" ht="14.45">
+      <c r="A14" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" customHeight="1" ht="14.45">
-      <c r="A14" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
+      <c r="C14" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="35.45">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
+        <v>76</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
     </row>
     <row r="28" spans="1:11" customHeight="1" ht="15.75">
-      <c r="C28" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="63"/>
-      <c r="H28" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="61"/>
+      <c r="C28" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="59"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="61"/>
+      <c r="H28" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:11" customHeight="1" ht="58.15">
-      <c r="C29" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="59"/>
+      <c r="C29" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="15.75">
-      <c r="C30" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" s="58"/>
+      <c r="C30" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="56"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/@Functions/obdateexport.xlsx
+++ b/@Functions/obdateexport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Document Code</t>
   </si>
@@ -72,7 +72,7 @@
     <t>CURRENT PERIOD:</t>
   </si>
   <si>
-    <t>January 2020</t>
+    <t>February 2020</t>
   </si>
   <si>
     <t>Date</t>
@@ -198,43 +198,55 @@
     <t>H</t>
   </si>
   <si>
-    <t>January 06, 2020</t>
+    <t>February 03, 2020</t>
   </si>
   <si>
     <t>100 %</t>
   </si>
   <si>
-    <t>January 07, 2020</t>
-  </si>
-  <si>
-    <t>January 10, 2020</t>
-  </si>
-  <si>
-    <t>January 14, 2020</t>
-  </si>
-  <si>
-    <t>January 15, 2020</t>
-  </si>
-  <si>
-    <t>January 20, 2020</t>
-  </si>
-  <si>
-    <t>January 22, 2020</t>
-  </si>
-  <si>
-    <t>January 24, 2020</t>
-  </si>
-  <si>
-    <t>January 27, 2020</t>
-  </si>
-  <si>
-    <t>January 28, 2020</t>
-  </si>
-  <si>
-    <t>January 29, 2020</t>
-  </si>
-  <si>
-    <t>January 30, 2020</t>
+    <t>February 04, 2020</t>
+  </si>
+  <si>
+    <t>February 05, 2020</t>
+  </si>
+  <si>
+    <t>February 06, 2020</t>
+  </si>
+  <si>
+    <t>February 07, 2020</t>
+  </si>
+  <si>
+    <t>February 10, 2020</t>
+  </si>
+  <si>
+    <t>February 11, 2020</t>
+  </si>
+  <si>
+    <t>February 12, 2020</t>
+  </si>
+  <si>
+    <t>February 13, 2020</t>
+  </si>
+  <si>
+    <t>February 14, 2020</t>
+  </si>
+  <si>
+    <t>February 17, 2020</t>
+  </si>
+  <si>
+    <t>February 18, 2020</t>
+  </si>
+  <si>
+    <t>February 19, 2020</t>
+  </si>
+  <si>
+    <t>February 20, 2020</t>
+  </si>
+  <si>
+    <t>February 21, 2020</t>
+  </si>
+  <si>
+    <t>February 24, 2020</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -755,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="258">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1001,6 +1013,138 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1473,7 +1617,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8324850" cy="1243013"/>
@@ -1866,7 +2010,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2097,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="72">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" s="73">
         <v>0</v>
@@ -2106,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="75">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" s="76" t="s">
         <v>38</v>
@@ -2124,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18" s="84">
         <v>0</v>
@@ -2133,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>38</v>
@@ -2151,7 +2295,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="95">
         <v>0</v>
@@ -2160,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" s="98" t="s">
         <v>38</v>
@@ -2178,7 +2322,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="105">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C20" s="106">
         <v>0</v>
@@ -2187,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="108">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F20" s="109" t="s">
         <v>38</v>
@@ -2205,7 +2349,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="116">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21" s="117">
         <v>0</v>
@@ -2214,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="119">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" s="120" t="s">
         <v>38</v>
@@ -2232,7 +2376,7 @@
         <v>43</v>
       </c>
       <c r="B22" s="127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="128">
         <v>0</v>
@@ -2241,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="131" t="s">
         <v>38</v>
@@ -2259,7 +2403,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="138">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C23" s="139">
         <v>0</v>
@@ -2268,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="141">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F23" s="142" t="s">
         <v>38</v>
@@ -2286,7 +2430,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="149">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C24" s="150">
         <v>0</v>
@@ -2295,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="152">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F24" s="153" t="s">
         <v>38</v>
@@ -2313,7 +2457,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="160">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="161">
         <v>0</v>
@@ -2322,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="163">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" s="164" t="s">
         <v>38</v>
@@ -2340,7 +2484,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="171">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26" s="172">
         <v>0</v>
@@ -2349,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="174">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F26" s="175" t="s">
         <v>38</v>
@@ -2367,7 +2511,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="182">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C27" s="183">
         <v>0</v>
@@ -2376,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="185">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F27" s="186" t="s">
         <v>38</v>
@@ -2394,7 +2538,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="193">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" s="194">
         <v>0</v>
@@ -2403,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="196">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F28" s="197" t="s">
         <v>38</v>
@@ -2421,7 +2565,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="204">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C29" s="205">
         <v>0</v>
@@ -2430,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="207">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="F29" s="208" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G29" s="209">
         <v>1</v>
@@ -2444,56 +2588,112 @@
       <c r="K29" s="213"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="A30" s="214" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="215">
+        <v>4</v>
+      </c>
+      <c r="C30" s="216">
+        <v>0</v>
+      </c>
+      <c r="D30" s="217">
+        <v>0</v>
+      </c>
+      <c r="E30" s="218">
+        <v>4</v>
+      </c>
+      <c r="F30" s="219" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="220">
+        <v>1</v>
+      </c>
+      <c r="H30" s="221"/>
+      <c r="I30" s="222"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="A31" s="225" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="226">
+        <v>11</v>
+      </c>
+      <c r="C31" s="227">
+        <v>0</v>
+      </c>
+      <c r="D31" s="228">
+        <v>0</v>
+      </c>
+      <c r="E31" s="229">
+        <v>11</v>
+      </c>
+      <c r="F31" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="231">
+        <v>1</v>
+      </c>
+      <c r="H31" s="232"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="234"/>
+      <c r="K31" s="235"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="A32" s="236" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="237">
+        <v>30</v>
+      </c>
+      <c r="C32" s="238">
+        <v>0</v>
+      </c>
+      <c r="D32" s="239">
+        <v>0</v>
+      </c>
+      <c r="E32" s="240">
+        <v>30</v>
+      </c>
+      <c r="F32" s="241" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="242">
+        <v>1</v>
+      </c>
+      <c r="H32" s="243"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="245"/>
+      <c r="K32" s="246"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="A33" s="247" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="248">
+        <v>218</v>
+      </c>
+      <c r="C33" s="249">
+        <v>0</v>
+      </c>
+      <c r="D33" s="250">
+        <v>0</v>
+      </c>
+      <c r="E33" s="251">
+        <v>218</v>
+      </c>
+      <c r="F33" s="252" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="253">
+        <v>1</v>
+      </c>
+      <c r="H33" s="254"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="257"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="13"/>
@@ -2581,6 +2781,10 @@
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2634,7 +2838,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="J3" s="40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K3" s="41"/>
       <c r="L3" s="42"/>
@@ -2688,7 +2892,7 @@
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -2714,7 +2918,7 @@
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
@@ -2731,40 +2935,40 @@
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="36">
       <c r="A13" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3002,7 +3206,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="I3" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="42"/>
@@ -3038,7 +3242,7 @@
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -3055,7 +3259,7 @@
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -3072,7 +3276,7 @@
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -3106,7 +3310,7 @@
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -3122,21 +3326,21 @@
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="14.45">
       <c r="A14" s="64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="68"/>
       <c r="G14" s="66" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
@@ -3151,13 +3355,13 @@
       <c r="E15" s="69"/>
       <c r="F15" s="70"/>
       <c r="G15" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I15" s="66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J15" s="66"/>
       <c r="K15" s="66"/>
@@ -3294,46 +3498,46 @@
     </row>
     <row r="28" spans="1:11" customHeight="1" ht="15.75">
       <c r="C28" s="59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="62"/>
       <c r="F28" s="60" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:11" customHeight="1" ht="58.15">
       <c r="C29" s="57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="15.75">
       <c r="C30" s="56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G30" s="56"/>
       <c r="H30" s="56" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I30" s="56"/>
     </row>

--- a/@Functions/obdateexport.xlsx
+++ b/@Functions/obdateexport.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ORS'!$A$1:$K$37</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>Document Code</t>
   </si>
@@ -72,7 +72,7 @@
     <t>CURRENT PERIOD:</t>
   </si>
   <si>
-    <t>February 2020</t>
+    <t>January 1970</t>
   </si>
   <si>
     <t>Date</t>
@@ -196,63 +196,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>February 03, 2020</t>
-  </si>
-  <si>
-    <t>100 %</t>
-  </si>
-  <si>
-    <t>February 04, 2020</t>
-  </si>
-  <si>
-    <t>February 05, 2020</t>
-  </si>
-  <si>
-    <t>February 06, 2020</t>
-  </si>
-  <si>
-    <t>February 07, 2020</t>
-  </si>
-  <si>
-    <t>February 10, 2020</t>
-  </si>
-  <si>
-    <t>February 11, 2020</t>
-  </si>
-  <si>
-    <t>February 12, 2020</t>
-  </si>
-  <si>
-    <t>February 13, 2020</t>
-  </si>
-  <si>
-    <t>February 14, 2020</t>
-  </si>
-  <si>
-    <t>February 17, 2020</t>
-  </si>
-  <si>
-    <t>February 18, 2020</t>
-  </si>
-  <si>
-    <t>February 19, 2020</t>
-  </si>
-  <si>
-    <t>February 20, 2020</t>
-  </si>
-  <si>
-    <t>February 21, 2020</t>
-  </si>
-  <si>
-    <t>February 24, 2020</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
   <si>
     <t>FM-QP-R4A-FAD-AS-15-02</t>
@@ -767,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="73">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -786,7 +729,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -810,6 +753,12 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -822,7 +771,7 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" quotePrefix="1" numFmtId="49" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -980,567 +929,6 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1600,36 +988,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8324850" cy="1243013"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2010,7 +1368,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,18 +1391,18 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="13.15">
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:11" customHeight="1" ht="11.45">
@@ -2059,7 +1417,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -2070,116 +1428,116 @@
       </c>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" customHeight="1" ht="18.75">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="48">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" customHeight="1" ht="15">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="29" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="20.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="43" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="70.5">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -2201,551 +1559,313 @@
       <c r="H15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" customHeight="1" ht="25.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" customHeight="1" ht="18">
-      <c r="A17" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="72">
-        <v>22</v>
-      </c>
-      <c r="C17" s="73">
-        <v>0</v>
-      </c>
-      <c r="D17" s="74">
-        <v>0</v>
-      </c>
-      <c r="E17" s="75">
-        <v>22</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="77">
-        <v>1</v>
-      </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="83">
-        <v>11</v>
-      </c>
-      <c r="C18" s="84">
-        <v>0</v>
-      </c>
-      <c r="D18" s="85">
-        <v>0</v>
-      </c>
-      <c r="E18" s="86">
-        <v>11</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="88">
-        <v>1</v>
-      </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="94">
-        <v>5</v>
-      </c>
-      <c r="C19" s="95">
-        <v>0</v>
-      </c>
-      <c r="D19" s="96">
-        <v>0</v>
-      </c>
-      <c r="E19" s="97">
-        <v>5</v>
-      </c>
-      <c r="F19" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="99">
-        <v>1</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="103"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="105">
-        <v>9</v>
-      </c>
-      <c r="C20" s="106">
-        <v>0</v>
-      </c>
-      <c r="D20" s="107">
-        <v>0</v>
-      </c>
-      <c r="E20" s="108">
-        <v>9</v>
-      </c>
-      <c r="F20" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="110">
-        <v>1</v>
-      </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="116">
-        <v>19</v>
-      </c>
-      <c r="C21" s="117">
-        <v>0</v>
-      </c>
-      <c r="D21" s="118">
-        <v>0</v>
-      </c>
-      <c r="E21" s="119">
-        <v>19</v>
-      </c>
-      <c r="F21" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="121">
-        <v>1</v>
-      </c>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="127">
-        <v>3</v>
-      </c>
-      <c r="C22" s="128">
-        <v>0</v>
-      </c>
-      <c r="D22" s="129">
-        <v>0</v>
-      </c>
-      <c r="E22" s="130">
-        <v>3</v>
-      </c>
-      <c r="F22" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="132">
-        <v>1</v>
-      </c>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="138">
-        <v>21</v>
-      </c>
-      <c r="C23" s="139">
-        <v>0</v>
-      </c>
-      <c r="D23" s="140">
-        <v>0</v>
-      </c>
-      <c r="E23" s="141">
-        <v>21</v>
-      </c>
-      <c r="F23" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="143">
-        <v>1</v>
-      </c>
-      <c r="H23" s="144"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="148" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="149">
-        <v>14</v>
-      </c>
-      <c r="C24" s="150">
-        <v>0</v>
-      </c>
-      <c r="D24" s="151">
-        <v>0</v>
-      </c>
-      <c r="E24" s="152">
-        <v>14</v>
-      </c>
-      <c r="F24" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="154">
-        <v>1</v>
-      </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="160">
-        <v>8</v>
-      </c>
-      <c r="C25" s="161">
-        <v>0</v>
-      </c>
-      <c r="D25" s="162">
-        <v>0</v>
-      </c>
-      <c r="E25" s="163">
-        <v>8</v>
-      </c>
-      <c r="F25" s="164" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="165">
-        <v>1</v>
-      </c>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="169"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="171">
-        <v>11</v>
-      </c>
-      <c r="C26" s="172">
-        <v>0</v>
-      </c>
-      <c r="D26" s="173">
-        <v>0</v>
-      </c>
-      <c r="E26" s="174">
-        <v>11</v>
-      </c>
-      <c r="F26" s="175" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="176">
-        <v>1</v>
-      </c>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="180"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="181" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="182">
-        <v>29</v>
-      </c>
-      <c r="C27" s="183">
-        <v>0</v>
-      </c>
-      <c r="D27" s="184">
-        <v>0</v>
-      </c>
-      <c r="E27" s="185">
-        <v>29</v>
-      </c>
-      <c r="F27" s="186" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="187">
-        <v>1</v>
-      </c>
-      <c r="H27" s="188"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="191"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="192" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="193">
-        <v>15</v>
-      </c>
-      <c r="C28" s="194">
-        <v>0</v>
-      </c>
-      <c r="D28" s="195">
-        <v>0</v>
-      </c>
-      <c r="E28" s="196">
-        <v>15</v>
-      </c>
-      <c r="F28" s="197" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="198">
-        <v>1</v>
-      </c>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="202"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="203" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="204">
-        <v>6</v>
-      </c>
-      <c r="C29" s="205">
-        <v>0</v>
-      </c>
-      <c r="D29" s="206">
-        <v>0</v>
-      </c>
-      <c r="E29" s="207">
-        <v>6</v>
-      </c>
-      <c r="F29" s="208" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="209">
-        <v>1</v>
-      </c>
-      <c r="H29" s="210"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="212"/>
-      <c r="K29" s="213"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="214" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="215">
-        <v>4</v>
-      </c>
-      <c r="C30" s="216">
-        <v>0</v>
-      </c>
-      <c r="D30" s="217">
-        <v>0</v>
-      </c>
-      <c r="E30" s="218">
-        <v>4</v>
-      </c>
-      <c r="F30" s="219" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="220">
-        <v>1</v>
-      </c>
-      <c r="H30" s="221"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="225" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="226">
-        <v>11</v>
-      </c>
-      <c r="C31" s="227">
-        <v>0</v>
-      </c>
-      <c r="D31" s="228">
-        <v>0</v>
-      </c>
-      <c r="E31" s="229">
-        <v>11</v>
-      </c>
-      <c r="F31" s="230" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="231">
-        <v>1</v>
-      </c>
-      <c r="H31" s="232"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="234"/>
-      <c r="K31" s="235"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="236" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="237">
-        <v>30</v>
-      </c>
-      <c r="C32" s="238">
-        <v>0</v>
-      </c>
-      <c r="D32" s="239">
-        <v>0</v>
-      </c>
-      <c r="E32" s="240">
-        <v>30</v>
-      </c>
-      <c r="F32" s="241" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="242">
-        <v>1</v>
-      </c>
-      <c r="H32" s="243"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="245"/>
-      <c r="K32" s="246"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="247" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="248">
-        <v>218</v>
-      </c>
-      <c r="C33" s="249">
-        <v>0</v>
-      </c>
-      <c r="D33" s="250">
-        <v>0</v>
-      </c>
-      <c r="E33" s="251">
-        <v>218</v>
-      </c>
-      <c r="F33" s="252" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="253">
-        <v>1</v>
-      </c>
-      <c r="H33" s="254"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="257"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2768,23 +1888,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2830,18 +1933,18 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:12" customHeight="1" ht="13.15">
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="J3" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:12" customHeight="1" ht="11.45">
@@ -2867,108 +1970,108 @@
       </c>
     </row>
     <row r="8" spans="1:12" customHeight="1" ht="15.75">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="1:12" customHeight="1" ht="36">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3198,18 +2301,18 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="13.15">
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="I3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="I3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="5.45"/>
     <row r="5" spans="1:11" customHeight="1" ht="11.45">
@@ -3235,320 +2338,320 @@
       </c>
     </row>
     <row r="8" spans="1:11" customHeight="1" ht="15.75">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="36"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" customHeight="1" ht="14.45">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" customHeight="1" ht="14.45">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
     </row>
     <row r="15" spans="1:11" customHeight="1" ht="35.45">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
+        <v>61</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
     </row>
     <row r="28" spans="1:11" customHeight="1" ht="15.75">
-      <c r="C28" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="59"/>
+      <c r="C28" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="63"/>
+      <c r="H28" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:11" customHeight="1" ht="58.15">
-      <c r="C29" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" s="57"/>
+      <c r="C29" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:11" customHeight="1" ht="15.75">
-      <c r="C30" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I30" s="56"/>
+      <c r="C30" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="58"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
